--- a/excel/overall.xlsx
+++ b/excel/overall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="627">
   <si>
     <t>lecturer_id</t>
   </si>
@@ -64,21 +64,12 @@
     <t>lecturer_status</t>
   </si>
   <si>
-    <t>Ronald</t>
-  </si>
-  <si>
     <t>Gatan</t>
   </si>
   <si>
     <t>Babaran</t>
   </si>
   <si>
-    <t>ME graduate</t>
-  </si>
-  <si>
-    <t>rbbabaran@gmail.com</t>
-  </si>
-  <si>
     <t>enrollment_id</t>
   </si>
   <si>
@@ -91,15 +82,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>Marivic</t>
-  </si>
-  <si>
-    <t>Gannaban</t>
-  </si>
-  <si>
-    <t>mggatan@gmail.com</t>
-  </si>
-  <si>
     <t>professor_id</t>
   </si>
   <si>
@@ -118,15 +100,9 @@
     <t>CE</t>
   </si>
   <si>
-    <t>jdvalencia</t>
-  </si>
-  <si>
     <t>jdvalencia@fit.edu.ph</t>
   </si>
   <si>
-    <t>jc</t>
-  </si>
-  <si>
     <t>Angelo Markus</t>
   </si>
   <si>
@@ -142,12 +118,6 @@
     <t>abzaguirre@fit.edu.ph</t>
   </si>
   <si>
-    <t>abzaguirre</t>
-  </si>
-  <si>
-    <t>markus</t>
-  </si>
-  <si>
     <t>activity_details_id</t>
   </si>
   <si>
@@ -289,12 +259,6 @@
     <t>aptorres@fit.edu.ph</t>
   </si>
   <si>
-    <t>aptorres</t>
-  </si>
-  <si>
-    <t>allen</t>
-  </si>
-  <si>
     <t>enrollment_is_active</t>
   </si>
   <si>
@@ -334,12 +298,6 @@
     <t>rbuen@fit.edu.ph</t>
   </si>
   <si>
-    <t>rbuen</t>
-  </si>
-  <si>
-    <t>ralph</t>
-  </si>
-  <si>
     <t>CECORREL1</t>
   </si>
   <si>
@@ -625,9 +583,6 @@
     <t>Malaya</t>
   </si>
   <si>
-    <t>riza</t>
-  </si>
-  <si>
     <t>rbmalaya@fit.edu.ph</t>
   </si>
   <si>
@@ -652,24 +607,6 @@
     <t>G32</t>
   </si>
   <si>
-    <t>Rona Mae</t>
-  </si>
-  <si>
-    <t>rgbabaran@gmail.com</t>
-  </si>
-  <si>
-    <t>Ralph Denver</t>
-  </si>
-  <si>
-    <t>CE graduate</t>
-  </si>
-  <si>
-    <t>EE graduate</t>
-  </si>
-  <si>
-    <t>rbgatan@gmail.com</t>
-  </si>
-  <si>
     <t>offering_department</t>
   </si>
   <si>
@@ -682,15 +619,6 @@
     <t>Riza3</t>
   </si>
   <si>
-    <t>riza1</t>
-  </si>
-  <si>
-    <t>riza2</t>
-  </si>
-  <si>
-    <t>riza3</t>
-  </si>
-  <si>
     <t>lecturer_feedback_department</t>
   </si>
   <si>
@@ -1142,9 +1070,6 @@
   </si>
   <si>
     <t>EEECORREL1</t>
-  </si>
-  <si>
-    <t>EEE graduate</t>
   </si>
   <si>
     <t>Other</t>
@@ -1968,12 +1893,159 @@
   <si>
     <t>YOTOKO@fit.edu.ph</t>
   </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>ceprof</t>
+  </si>
+  <si>
+    <t>meprof</t>
+  </si>
+  <si>
+    <t>eceprof</t>
+  </si>
+  <si>
+    <t>eeprof</t>
+  </si>
+  <si>
+    <t>cefic</t>
+  </si>
+  <si>
+    <t>mefic</t>
+  </si>
+  <si>
+    <t>ecefic</t>
+  </si>
+  <si>
+    <t>eefic</t>
+  </si>
+  <si>
+    <t>Omarion</t>
+  </si>
+  <si>
+    <t>Ampaso</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>Sinagtala</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>Canencia</t>
+  </si>
+  <si>
+    <t>Engineering Economics</t>
+  </si>
+  <si>
+    <t>Power and Industrial Plant Engineering</t>
+  </si>
+  <si>
+    <t>Hydraulics Engineer</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Choa</t>
+  </si>
+  <si>
+    <t>Aboitiz</t>
+  </si>
+  <si>
+    <t>Carola</t>
+  </si>
+  <si>
+    <t>Magos</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Andrada</t>
+  </si>
+  <si>
+    <t>Brisa</t>
+  </si>
+  <si>
+    <t>Cabigas</t>
+  </si>
+  <si>
+    <t>Lingao</t>
+  </si>
+  <si>
+    <t>Basic and General Mathematics</t>
+  </si>
+  <si>
+    <t>Electrical Engineering Professional</t>
+  </si>
+  <si>
+    <t>Machine Design</t>
+  </si>
+  <si>
+    <t>Electronics System</t>
+  </si>
+  <si>
+    <t>General Engineering</t>
+  </si>
+  <si>
+    <t>ramos@gmail.com</t>
+  </si>
+  <si>
+    <t>cabrera@gmail.com</t>
+  </si>
+  <si>
+    <t>cordero@gmail.com</t>
+  </si>
+  <si>
+    <t>canencia@gmail.com</t>
+  </si>
+  <si>
+    <t>aboitiz@gmail.com</t>
+  </si>
+  <si>
+    <t>amparo@gmail.com</t>
+  </si>
+  <si>
+    <t>andrada@gmail.com</t>
+  </si>
+  <si>
+    <t>lingao@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,6 +2097,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2047,7 +2126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2069,6 +2148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2353,12 +2433,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
@@ -2368,16 +2448,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2386,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2394,22 +2474,22 @@
         <v>202011111</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2422,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2439,16 +2519,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2457,16 +2537,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2474,28 +2554,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>583</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>583</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2506,28 +2586,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>584</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>584</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2538,28 +2618,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2570,28 +2650,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>586</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>586</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2612,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2625,19 +2705,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2645,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2662,10 +2742,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2679,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2696,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2713,10 +2793,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2730,10 +2810,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2747,10 +2827,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2764,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -2783,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2796,7 +2876,7 @@
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.88671875" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
@@ -2808,31 +2888,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2842,26 +2922,26 @@
       <c r="B2">
         <v>201011111</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="C2" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>589</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>614</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>619</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2874,26 +2954,26 @@
       <c r="B3">
         <v>201022222</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="C3" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>592</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>601</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>620</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2906,26 +2986,26 @@
       <c r="B4">
         <v>201033333</v>
       </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="C4" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>594</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>599</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>202</v>
+        <v>621</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2938,28 +3018,156 @@
       <c r="B5">
         <v>201044444</v>
       </c>
-      <c r="C5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>201055555</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>201066666</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5">
+      <c r="B8">
+        <v>201077777</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>201088888</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
@@ -2969,9 +3177,13 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
     <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2995,22 +3207,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3018,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3035,10 +3247,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3052,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3069,10 +3281,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3086,10 +3298,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3103,10 +3315,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3120,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3137,10 +3349,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3174,22 +3386,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3203,7 +3415,7 @@
         <v>1517968200</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3223,7 +3435,7 @@
         <v>1518073200</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3243,7 +3455,7 @@
         <v>1518174000</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3263,7 +3475,7 @@
         <v>1518238800</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3296,19 +3508,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3379,13 +3591,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3438,13 +3650,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3505,22 +3717,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3528,10 +3740,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3545,10 +3757,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3562,10 +3774,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3579,10 +3791,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3617,28 +3829,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3646,10 +3858,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1515589773</v>
@@ -3661,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3676,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3690,16 +3902,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -3708,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3722,28 +3934,28 @@
         <v>201511281</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3751,28 +3963,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3780,28 +3992,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3809,28 +4021,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3838,28 +4050,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3867,28 +4079,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3896,28 +4108,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3925,28 +4137,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3954,28 +4166,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3983,28 +4195,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4012,28 +4224,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4041,28 +4253,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4070,28 +4282,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4099,28 +4311,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4128,28 +4340,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4157,28 +4369,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4186,28 +4398,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4215,28 +4427,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4244,28 +4456,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4273,28 +4485,28 @@
         <v>201411736</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G21" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4302,28 +4514,28 @@
         <v>201311694</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="G22" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4331,28 +4543,28 @@
         <v>201311355</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4360,28 +4572,28 @@
         <v>201412123</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G24" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4389,28 +4601,28 @@
         <v>201420066</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4418,28 +4630,28 @@
         <v>201412338</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4447,28 +4659,28 @@
         <v>201412224</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4476,28 +4688,28 @@
         <v>201410821</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4505,28 +4717,28 @@
         <v>201410704</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4534,28 +4746,28 @@
         <v>201412670</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4563,28 +4775,28 @@
         <v>201210843</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G31" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4592,28 +4804,28 @@
         <v>201410901</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="G32" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4621,28 +4833,28 @@
         <v>201230137</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="G33" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4650,28 +4862,28 @@
         <v>201410941</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4679,28 +4891,28 @@
         <v>201411107</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="G35" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4708,28 +4920,28 @@
         <v>201412671</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="G36" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4737,28 +4949,28 @@
         <v>201411266</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4766,28 +4978,28 @@
         <v>201412315</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="G38" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4795,28 +5007,28 @@
         <v>201420024</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4824,28 +5036,28 @@
         <v>201310916</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="G40" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4853,28 +5065,28 @@
         <v>201512691</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="G41" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4882,28 +5094,28 @@
         <v>201410367</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4911,28 +5123,28 @@
         <v>201310584</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G43" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I43" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4940,28 +5152,28 @@
         <v>201710117</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I44" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4969,28 +5181,28 @@
         <v>201710447</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4998,28 +5210,28 @@
         <v>201710074</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5027,28 +5239,28 @@
         <v>201710424</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I47" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5056,28 +5268,28 @@
         <v>201710100</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5085,28 +5297,28 @@
         <v>201710453</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="G49" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I49" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5114,28 +5326,28 @@
         <v>201710040</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5143,28 +5355,28 @@
         <v>201710221</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="G51" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5172,28 +5384,28 @@
         <v>201710258</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="G52" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5201,28 +5413,28 @@
         <v>201710152</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5230,28 +5442,28 @@
         <v>201710057</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I54" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5259,28 +5471,28 @@
         <v>201710032</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="G55" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I55" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5288,28 +5500,28 @@
         <v>201710042</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="G56" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I56" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5317,28 +5529,28 @@
         <v>201710400</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I57" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5346,28 +5558,28 @@
         <v>201710458</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>22</v>
+        <v>578</v>
       </c>
       <c r="I58" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5375,28 +5587,28 @@
         <v>201710365</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5404,28 +5616,28 @@
         <v>201011240</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5433,28 +5645,28 @@
         <v>201710347</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="G61" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5462,28 +5674,28 @@
         <v>201710362</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="G62" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5491,28 +5703,28 @@
         <v>201710368</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="G63" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5520,28 +5732,28 @@
         <v>201710019</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="G64" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5549,28 +5761,28 @@
         <v>201710338</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5578,28 +5790,28 @@
         <v>201710050</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="G66" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5607,28 +5819,28 @@
         <v>201710384</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G67" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5636,28 +5848,28 @@
         <v>201710054</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5665,28 +5877,28 @@
         <v>201710405</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="G69" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5694,28 +5906,28 @@
         <v>201710174</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="G70" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5723,28 +5935,28 @@
         <v>201710260</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="G71" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5752,28 +5964,28 @@
         <v>201011434</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5781,28 +5993,28 @@
         <v>201412795</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="G73" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5810,28 +6022,28 @@
         <v>201710002</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="G74" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5839,28 +6051,28 @@
         <v>201111222</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="G75" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5868,28 +6080,28 @@
         <v>201710020</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="G76" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5897,28 +6109,28 @@
         <v>201710076</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="G77" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I77" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5926,28 +6138,28 @@
         <v>201710341</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="G78" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5977,10 +6189,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5988,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5996,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6004,7 +6216,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6012,7 +6224,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6024,8 +6236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="E65" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K78"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6044,16 +6256,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6062,19 +6274,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6082,28 +6294,28 @@
         <v>201511281</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -6117,28 +6329,28 @@
         <v>201511438</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -6152,28 +6364,28 @@
         <v>201411491</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -6187,28 +6399,28 @@
         <v>201410679</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -6222,28 +6434,28 @@
         <v>201411851</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6257,28 +6469,28 @@
         <v>201410215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -6292,28 +6504,28 @@
         <v>201420096</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6327,28 +6539,28 @@
         <v>201512590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6362,28 +6574,28 @@
         <v>201411823</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -6397,28 +6609,28 @@
         <v>201410617</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6432,28 +6644,28 @@
         <v>201410881</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6467,28 +6679,28 @@
         <v>201512068</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6502,28 +6714,28 @@
         <v>201512491</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -6537,28 +6749,28 @@
         <v>201510652</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -6572,28 +6784,28 @@
         <v>201511230</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -6607,28 +6819,28 @@
         <v>201511911</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -6642,28 +6854,28 @@
         <v>201510573</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -6677,28 +6889,28 @@
         <v>201512532</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -6712,28 +6924,28 @@
         <v>201510186</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -6747,28 +6959,28 @@
         <v>201411736</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="G21" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -6782,28 +6994,28 @@
         <v>201311694</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="G22" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -6817,28 +7029,28 @@
         <v>201311355</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -6852,28 +7064,28 @@
         <v>201412123</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G24" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -6887,28 +7099,28 @@
         <v>201420066</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -6922,28 +7134,28 @@
         <v>201412338</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6957,28 +7169,28 @@
         <v>201412224</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6992,28 +7204,28 @@
         <v>201410821</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7027,28 +7239,28 @@
         <v>201410704</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7062,28 +7274,28 @@
         <v>201412670</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -7097,28 +7309,28 @@
         <v>201210843</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G31" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -7132,28 +7344,28 @@
         <v>201410901</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="G32" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7167,28 +7379,28 @@
         <v>201230137</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="G33" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -7202,28 +7414,28 @@
         <v>201410941</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -7237,28 +7449,28 @@
         <v>201411107</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="G35" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -7272,28 +7484,28 @@
         <v>201412671</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="G36" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I36" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -7307,28 +7519,28 @@
         <v>201411266</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -7342,28 +7554,28 @@
         <v>201412315</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="G38" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -7377,28 +7589,28 @@
         <v>201420024</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -7412,28 +7624,28 @@
         <v>201310916</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="G40" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -7447,28 +7659,28 @@
         <v>201512691</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="G41" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I41" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -7482,28 +7694,28 @@
         <v>201410367</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -7517,28 +7729,28 @@
         <v>201310584</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G43" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I43" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -7552,28 +7764,28 @@
         <v>201710117</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="G44" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I44" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -7587,28 +7799,28 @@
         <v>201710447</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -7622,28 +7834,28 @@
         <v>201710074</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I46" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -7657,28 +7869,28 @@
         <v>201710424</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I47" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -7692,28 +7904,28 @@
         <v>201710100</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="G48" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -7727,28 +7939,28 @@
         <v>201710453</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="G49" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I49" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -7762,28 +7974,28 @@
         <v>201710040</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -7797,28 +8009,28 @@
         <v>201710221</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="G51" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -7832,28 +8044,28 @@
         <v>201710258</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="G52" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -7867,28 +8079,28 @@
         <v>201710152</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -7902,28 +8114,28 @@
         <v>201710057</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="G54" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -7937,28 +8149,28 @@
         <v>201710032</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="G55" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -7972,28 +8184,28 @@
         <v>201710042</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="G56" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -8007,28 +8219,28 @@
         <v>201710400</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -8042,28 +8254,28 @@
         <v>201710458</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -8077,28 +8289,28 @@
         <v>201710365</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -8112,28 +8324,28 @@
         <v>201011240</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -8147,28 +8359,28 @@
         <v>201710347</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="G61" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -8182,28 +8394,28 @@
         <v>201710362</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="G62" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -8217,28 +8429,28 @@
         <v>201710368</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="G63" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -8252,28 +8464,28 @@
         <v>201710019</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="G64" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -8287,28 +8499,28 @@
         <v>201710338</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -8322,28 +8534,28 @@
         <v>201710050</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="G66" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -8357,28 +8569,28 @@
         <v>201710384</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G67" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -8392,28 +8604,28 @@
         <v>201710054</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -8427,28 +8639,28 @@
         <v>201710405</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="G69" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -8462,28 +8674,28 @@
         <v>201710174</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="G70" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -8497,28 +8709,28 @@
         <v>201710260</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="G71" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -8532,28 +8744,28 @@
         <v>201011434</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -8567,28 +8779,28 @@
         <v>201412795</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="G73" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -8602,28 +8814,28 @@
         <v>201710002</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="G74" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -8637,28 +8849,28 @@
         <v>201111222</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="G75" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -8672,28 +8884,28 @@
         <v>201710020</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="G76" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -8707,28 +8919,28 @@
         <v>201710076</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="G77" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -8742,28 +8954,28 @@
         <v>201710341</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="G78" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -8805,28 +9017,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8837,10 +9049,10 @@
         <v>1515455338</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>201511281</v>
@@ -8863,10 +9075,10 @@
         <v>1517149393</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>201511281</v>
@@ -8889,10 +9101,10 @@
         <v>1517152407</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>201411491</v>
@@ -8915,10 +9127,10 @@
         <v>1517152410</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>201411491</v>
@@ -8941,10 +9153,10 @@
         <v>1517152981</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>201410215</v>
@@ -8967,10 +9179,10 @@
         <v>1517152985</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>201410215</v>
@@ -9006,10 +9218,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9017,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9025,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -9053,28 +9265,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9082,10 +9294,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D2">
         <v>1518443372</v>
@@ -9119,10 +9331,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9130,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9138,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9146,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9154,7 +9366,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9162,7 +9374,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9188,16 +9400,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9205,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9216,7 +9428,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9227,7 +9439,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9238,7 +9450,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -9249,7 +9461,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9260,7 +9472,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -9271,7 +9483,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9282,7 +9494,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9293,7 +9505,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9304,7 +9516,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9315,7 +9527,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9326,7 +9538,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -9337,7 +9549,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9348,7 +9560,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9359,7 +9571,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9370,7 +9582,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9381,7 +9593,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9392,7 +9604,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9403,7 +9615,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -9414,7 +9626,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -9425,7 +9637,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9436,7 +9648,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9447,7 +9659,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9458,7 +9670,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9469,7 +9681,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9480,7 +9692,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9491,7 +9703,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9502,7 +9714,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9513,7 +9725,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9524,7 +9736,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9535,7 +9747,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9546,7 +9758,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9557,7 +9769,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -9568,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -9579,7 +9791,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -9590,7 +9802,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -9601,7 +9813,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -9612,7 +9824,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -9623,7 +9835,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -9634,7 +9846,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -9645,7 +9857,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9656,7 +9868,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -9667,7 +9879,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9678,7 +9890,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9689,7 +9901,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9700,7 +9912,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -9711,7 +9923,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -9722,7 +9934,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -9733,7 +9945,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -9744,7 +9956,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9755,7 +9967,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -9766,7 +9978,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9777,7 +9989,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9788,7 +10000,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9799,7 +10011,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9810,7 +10022,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -9821,7 +10033,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9832,7 +10044,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -9843,7 +10055,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -9854,7 +10066,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9865,7 +10077,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9876,7 +10088,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -9887,7 +10099,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9898,7 +10110,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -9909,7 +10121,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -9920,7 +10132,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -9931,7 +10143,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -9942,7 +10154,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -9953,7 +10165,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -9964,7 +10176,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -9975,7 +10187,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -9986,7 +10198,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -9997,7 +10209,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -10008,7 +10220,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -10019,7 +10231,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -10030,7 +10242,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -10041,7 +10253,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -10052,7 +10264,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -10063,7 +10275,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -10074,7 +10286,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -10085,7 +10297,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -10096,7 +10308,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -10107,7 +10319,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -10118,7 +10330,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -10129,7 +10341,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -10140,7 +10352,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -10151,7 +10363,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -10162,7 +10374,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -10173,7 +10385,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -10189,7 +10401,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10203,22 +10415,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10226,13 +10438,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -10243,13 +10455,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
@@ -10260,13 +10472,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
@@ -10277,16 +10489,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10294,16 +10506,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10311,16 +10523,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10328,13 +10540,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -10345,13 +10557,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -10362,13 +10574,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
@@ -10379,16 +10591,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10396,16 +10608,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10413,16 +10625,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10430,13 +10642,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -10447,13 +10659,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -10464,13 +10676,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -10481,16 +10693,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10498,16 +10710,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10515,16 +10727,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10532,16 +10744,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10549,16 +10761,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10566,13 +10778,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
@@ -10583,13 +10795,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -10600,13 +10812,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
@@ -10617,16 +10829,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10634,16 +10846,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10651,16 +10863,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -10685,10 +10897,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12754,16 +12966,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12771,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -12785,7 +12997,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -12804,8 +13016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12825,22 +13037,22 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -12849,13 +13061,13 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -12863,28 +13075,28 @@
         <v>201111111</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>579</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>579</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -12898,28 +13110,28 @@
         <v>201122222</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>580</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -12933,28 +13145,28 @@
         <v>201133333</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>581</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -12968,28 +13180,28 @@
         <v>201144444</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>582</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>582</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -13015,7 +13227,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13032,28 +13244,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13061,13 +13273,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13087,13 +13299,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -13113,13 +13325,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13139,13 +13351,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/excel/overall.xlsx
+++ b/excel/overall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -2503,7 +2503,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3888,16 +3888,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13016,8 +13016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/excel/overall.xlsx
+++ b/excel/overall.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732" tabRatio="810" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="8" r:id="rId1"/>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3576,6 +3576,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3584,10 +3585,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3643,10 +3649,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -3888,7 +3899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
